--- a/0 - DADOS/Projeções_receita.xlsx
+++ b/0 - DADOS/Projeções_receita.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marina.pacheco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcus.montalvao\Documents\R\Relatorio_receita\0 - DADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROJETADO" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="27">
   <si>
     <t>RECEITA</t>
   </si>
@@ -72,37 +72,43 @@
     <t>OUTRAS</t>
   </si>
   <si>
-    <t>COMBUSTIVEL</t>
+    <t>SIMPLES NACIONAL</t>
   </si>
   <si>
-    <t>COMUNICACAO</t>
+    <t>COMÉRCIO ATACADISTA E DISTRIBUIDOR</t>
   </si>
   <si>
-    <t>COMERCIO ATACADISTA E DISTRIBUIDOR</t>
+    <t>COMÉRCIO VAREJISTA</t>
   </si>
   <si>
-    <t>COMERCIO VAREJISTA</t>
+    <t xml:space="preserve"> VALOR PROJEÇÃO</t>
   </si>
   <si>
-    <t>ENERGIA ELETRICA</t>
+    <t>DATA ULTIMA ATUALIZAÇÃO</t>
   </si>
   <si>
-    <t>ENERGIA ELETRICA (CONS. LIVRE)</t>
+    <t>COMUNICAÇÃO</t>
   </si>
   <si>
-    <t>EXTRATOR MINERAL OU FOSSIL</t>
+    <t>PRODUÇÃO AGROPECUÁRIA</t>
   </si>
   <si>
-    <t>INDUSTRIA</t>
+    <t>PRESTAÇÃO DE SERVIÇO</t>
   </si>
   <si>
-    <t>PRESTACAO DE SERVICO</t>
+    <t>INDÚSTRIA</t>
   </si>
   <si>
-    <t>PRODUCAO AGROPECUARIA</t>
+    <t>EXTRATOR MINERAL OU FÓSSIL</t>
   </si>
   <si>
-    <t>SIMPLES NACIONAL</t>
+    <t>ENERGIA ELÉTRICA</t>
+  </si>
+  <si>
+    <t>ENERGIA ELÉTRICA (CONS. LIVRE)</t>
+  </si>
+  <si>
+    <t>COMBUSTÍVEL</t>
   </si>
 </sst>
 </file>
@@ -519,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
@@ -2823,9 +2829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,10 +2850,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2855,7 +2861,7 @@
         <v>45292</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C2" s="12">
         <v>576200195.23000002</v>
@@ -2869,7 +2875,7 @@
         <v>45323</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C3" s="12">
         <v>574983752.54999995</v>
@@ -2883,7 +2889,7 @@
         <v>45352</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C4" s="12">
         <v>561531327.10000002</v>
@@ -2897,7 +2903,7 @@
         <v>45383</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C5" s="12">
         <v>563475738.14999998</v>
@@ -2911,7 +2917,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C6" s="12">
         <v>586976929.99000001</v>
@@ -2925,7 +2931,7 @@
         <v>45444</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C7" s="12">
         <v>584822488.72000003</v>
@@ -2939,7 +2945,7 @@
         <v>45474</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C8" s="12">
         <v>642953413.36000001</v>
@@ -2953,7 +2959,7 @@
         <v>45505</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C9" s="12">
         <v>645354190.42999995</v>
@@ -2967,7 +2973,7 @@
         <v>45536</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C10" s="12">
         <v>647626054.29999995</v>
@@ -2981,7 +2987,7 @@
         <v>45566</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C11" s="12">
         <v>629548554.5</v>
@@ -2995,7 +3001,7 @@
         <v>45597</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C12" s="12">
         <v>611584460.25999999</v>
@@ -3009,7 +3015,7 @@
         <v>45627</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C13" s="12">
         <v>614605411.01999998</v>
@@ -3023,7 +3029,7 @@
         <v>45658</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C14" s="12">
         <v>625368055.26999998</v>
@@ -3037,7 +3043,7 @@
         <v>45689</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C15" s="12">
         <v>653874181.38</v>
@@ -3051,7 +3057,7 @@
         <v>45717</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C16" s="12">
         <v>654154378.75</v>
@@ -3065,7 +3071,7 @@
         <v>45748</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C17" s="12">
         <v>674331664.62</v>
@@ -3079,7 +3085,7 @@
         <v>45778</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12">
         <v>660965853.42999995</v>
@@ -3093,7 +3099,7 @@
         <v>45809</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C19" s="12">
         <v>669184646.86000001</v>
@@ -3107,7 +3113,7 @@
         <v>45839</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C20" s="12">
         <v>668525175.90999997</v>
@@ -3121,7 +3127,7 @@
         <v>45870</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C21" s="12">
         <v>670803410.65999997</v>
@@ -3135,7 +3141,7 @@
         <v>45901</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C22" s="12">
         <v>673121631.57000005</v>
@@ -3149,7 +3155,7 @@
         <v>45931</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C23" s="12">
         <v>665149436.00999999</v>
@@ -3163,7 +3169,7 @@
         <v>45962</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C24" s="12">
         <v>644157881.87</v>
@@ -3177,7 +3183,7 @@
         <v>45992</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C25" s="12">
         <v>638070578.96000004</v>
@@ -3191,7 +3197,7 @@
         <v>45292</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C26" s="12">
         <v>49906349.18</v>
@@ -3205,7 +3211,7 @@
         <v>45323</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C27" s="12">
         <v>49953872.68</v>
@@ -3219,7 +3225,7 @@
         <v>45352</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C28" s="12">
         <v>42058494.57</v>
@@ -3233,7 +3239,7 @@
         <v>45383</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C29" s="12">
         <v>45958133.700000003</v>
@@ -3247,7 +3253,7 @@
         <v>45413</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C30" s="12">
         <v>42510784.149999999</v>
@@ -3261,7 +3267,7 @@
         <v>45444</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C31" s="12">
         <v>45603096.009999998</v>
@@ -3275,7 +3281,7 @@
         <v>45474</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C32" s="12">
         <v>50360278.259999998</v>
@@ -3289,7 +3295,7 @@
         <v>45505</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C33" s="12">
         <v>48833301.310000002</v>
@@ -3303,7 +3309,7 @@
         <v>45536</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C34" s="12">
         <v>49821008.659999996</v>
@@ -3317,7 +3323,7 @@
         <v>45566</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C35" s="12">
         <v>47475377</v>
@@ -3331,7 +3337,7 @@
         <v>45597</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C36" s="12">
         <v>49624638.939999998</v>
@@ -3345,7 +3351,7 @@
         <v>45627</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C37" s="12">
         <v>54897798.490000002</v>
@@ -3359,7 +3365,7 @@
         <v>45658</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C38" s="12">
         <v>49564166.719999999</v>
@@ -3373,7 +3379,7 @@
         <v>45689</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C39" s="12">
         <v>48792782</v>
@@ -3387,7 +3393,7 @@
         <v>45717</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C40" s="12">
         <v>48968907.450000003</v>
@@ -3401,7 +3407,7 @@
         <v>45748</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C41" s="12">
         <v>53081145.590000004</v>
@@ -3415,7 +3421,7 @@
         <v>45778</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C42" s="12">
         <v>52867753.619999997</v>
@@ -3429,7 +3435,7 @@
         <v>45809</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C43" s="12">
         <v>51893021.810000002</v>
@@ -3443,7 +3449,7 @@
         <v>45839</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C44" s="12">
         <v>50903404.170000002</v>
@@ -3457,7 +3463,7 @@
         <v>45870</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C45" s="12">
         <v>49449440.829999998</v>
@@ -3471,7 +3477,7 @@
         <v>45901</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C46" s="12">
         <v>50430828.340000004</v>
@@ -3485,7 +3491,7 @@
         <v>45931</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C47" s="12">
         <v>48014744.789999999</v>
@@ -3499,7 +3505,7 @@
         <v>45962</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C48" s="12">
         <v>50222967.280000001</v>
@@ -3513,7 +3519,7 @@
         <v>45992</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C49" s="12">
         <v>55117120.939999998</v>
@@ -3527,7 +3533,7 @@
         <v>45292</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="12">
         <v>445142655.14999998</v>
@@ -3541,7 +3547,7 @@
         <v>45323</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="12">
         <v>437084210.12</v>
@@ -3555,7 +3561,7 @@
         <v>45352</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="12">
         <v>418906034.87</v>
@@ -3569,7 +3575,7 @@
         <v>45383</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="12">
         <v>449106075.5</v>
@@ -3583,7 +3589,7 @@
         <v>45413</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="12">
         <v>419616575.55000001</v>
@@ -3597,7 +3603,7 @@
         <v>45444</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="12">
         <v>442105318.64999998</v>
@@ -3611,7 +3617,7 @@
         <v>45474</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" s="12">
         <v>458019565.81</v>
@@ -3625,7 +3631,7 @@
         <v>45505</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="12">
         <v>450986020.35000002</v>
@@ -3639,7 +3645,7 @@
         <v>45536</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="12">
         <v>475014015.06</v>
@@ -3653,7 +3659,7 @@
         <v>45566</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="12">
         <v>476873234.10000002</v>
@@ -3667,7 +3673,7 @@
         <v>45597</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="12">
         <v>477813452.13</v>
@@ -3681,7 +3687,7 @@
         <v>45627</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="12">
         <v>488901484.29000002</v>
@@ -3695,7 +3701,7 @@
         <v>45658</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="12">
         <v>475217374.69999999</v>
@@ -3709,7 +3715,7 @@
         <v>45689</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="12">
         <v>453677332.04000002</v>
@@ -3723,7 +3729,7 @@
         <v>45717</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="12">
         <v>453106650.76999998</v>
@@ -3737,7 +3743,7 @@
         <v>45748</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" s="12">
         <v>473360331.12</v>
@@ -3751,7 +3757,7 @@
         <v>45778</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" s="12">
         <v>459597806.32999998</v>
@@ -3765,7 +3771,7 @@
         <v>45809</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" s="12">
         <v>486343360.55000001</v>
@@ -3779,7 +3785,7 @@
         <v>45839</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68" s="12">
         <v>494223930.07999998</v>
@@ -3793,7 +3799,7 @@
         <v>45870</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" s="12">
         <v>489438879.74000001</v>
@@ -3807,7 +3813,7 @@
         <v>45901</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C70" s="12">
         <v>512391969.25999999</v>
@@ -3821,7 +3827,7 @@
         <v>45931</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" s="12">
         <v>516338206.56999999</v>
@@ -3835,7 +3841,7 @@
         <v>45962</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72" s="12">
         <v>515331291.31999999</v>
@@ -3849,7 +3855,7 @@
         <v>45992</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73" s="12">
         <v>526008766.07999998</v>
@@ -3863,7 +3869,7 @@
         <v>45292</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" s="12">
         <v>397702706.56999999</v>
@@ -3877,7 +3883,7 @@
         <v>45323</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C75" s="12">
         <v>367150409.44</v>
@@ -3891,7 +3897,7 @@
         <v>45352</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76" s="12">
         <v>327821899.56999999</v>
@@ -3905,7 +3911,7 @@
         <v>45383</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77" s="12">
         <v>326346853.77999997</v>
@@ -3919,7 +3925,7 @@
         <v>45413</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78" s="12">
         <v>338065280.04000002</v>
@@ -3933,7 +3939,7 @@
         <v>45444</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C79" s="12">
         <v>356337228.62</v>
@@ -3947,7 +3953,7 @@
         <v>45474</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80" s="12">
         <v>315104047.26999998</v>
@@ -3961,7 +3967,7 @@
         <v>45505</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81" s="12">
         <v>321627949.11000001</v>
@@ -3975,7 +3981,7 @@
         <v>45536</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82" s="12">
         <v>319825712.00999999</v>
@@ -3989,7 +3995,7 @@
         <v>45566</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83" s="12">
         <v>316651567.62</v>
@@ -4003,7 +4009,7 @@
         <v>45597</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84" s="12">
         <v>321836920.25</v>
@@ -4017,7 +4023,7 @@
         <v>45627</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" s="12">
         <v>342918142.81</v>
@@ -4031,7 +4037,7 @@
         <v>45658</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" s="12">
         <v>369299083.63</v>
@@ -4045,7 +4051,7 @@
         <v>45689</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" s="12">
         <v>326447526.91000003</v>
@@ -4059,7 +4065,7 @@
         <v>45717</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" s="12">
         <v>311089894.76999998</v>
@@ -4073,7 +4079,7 @@
         <v>45748</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89" s="12">
         <v>323433820.62</v>
@@ -4087,7 +4093,7 @@
         <v>45778</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90" s="12">
         <v>336970725.25</v>
@@ -4101,7 +4107,7 @@
         <v>45809</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" s="12">
         <v>349721352.52999997</v>
@@ -4115,7 +4121,7 @@
         <v>45839</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="12">
         <v>346435365.44</v>
@@ -4129,7 +4135,7 @@
         <v>45870</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93" s="12">
         <v>353545018.93000001</v>
@@ -4143,7 +4149,7 @@
         <v>45901</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94" s="12">
         <v>352110554.77999997</v>
@@ -4157,7 +4163,7 @@
         <v>45931</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95" s="12">
         <v>348729640.69999999</v>
@@ -4171,7 +4177,7 @@
         <v>45962</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" s="12">
         <v>353888975.32999998</v>
@@ -4185,7 +4191,7 @@
         <v>45992</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C97" s="12">
         <v>375200695.48000002</v>
@@ -4199,7 +4205,7 @@
         <v>45292</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C98" s="12">
         <v>135061552.78</v>
@@ -4213,7 +4219,7 @@
         <v>45323</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C99" s="12">
         <v>127306675.22</v>
@@ -4227,7 +4233,7 @@
         <v>45352</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C100" s="12">
         <v>126749018.68000001</v>
@@ -4241,7 +4247,7 @@
         <v>45383</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C101" s="12">
         <v>129755295.68000001</v>
@@ -4255,7 +4261,7 @@
         <v>45413</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C102" s="12">
         <v>131220349.09999999</v>
@@ -4269,7 +4275,7 @@
         <v>45444</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C103" s="12">
         <v>132382526.86</v>
@@ -4283,7 +4289,7 @@
         <v>45474</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C104" s="12">
         <v>140842096.22999999</v>
@@ -4297,7 +4303,7 @@
         <v>45505</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C105" s="12">
         <v>135361658.44</v>
@@ -4311,7 +4317,7 @@
         <v>45536</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C106" s="12">
         <v>140660349.11000001</v>
@@ -4325,7 +4331,7 @@
         <v>45566</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C107" s="12">
         <v>150481532.41999999</v>
@@ -4339,7 +4345,7 @@
         <v>45597</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C108" s="12">
         <v>161303558.86000001</v>
@@ -4353,7 +4359,7 @@
         <v>45627</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C109" s="12">
         <v>161625462.02000001</v>
@@ -4367,7 +4373,7 @@
         <v>45658</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C110" s="12">
         <v>151893137.13999999</v>
@@ -4381,7 +4387,7 @@
         <v>45689</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C111" s="12">
         <v>152092045.68000001</v>
@@ -4395,7 +4401,7 @@
         <v>45717</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C112" s="12">
         <v>150082125.00999999</v>
@@ -4409,7 +4415,7 @@
         <v>45748</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C113" s="12">
         <v>148432828.74000001</v>
@@ -4423,7 +4429,7 @@
         <v>45778</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C114" s="12">
         <v>159194415.59999999</v>
@@ -4437,7 +4443,7 @@
         <v>45809</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C115" s="12">
         <v>149751043.36000001</v>
@@ -4451,7 +4457,7 @@
         <v>45839</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C116" s="12">
         <v>142655058.83000001</v>
@@ -4465,7 +4471,7 @@
         <v>45870</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C117" s="12">
         <v>139086930.84999999</v>
@@ -4479,7 +4485,7 @@
         <v>45901</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C118" s="12">
         <v>143375776.02000001</v>
@@ -4493,7 +4499,7 @@
         <v>45931</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C119" s="12">
         <v>155620400.65000001</v>
@@ -4507,7 +4513,7 @@
         <v>45962</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C120" s="12">
         <v>161759300.52000001</v>
@@ -4521,7 +4527,7 @@
         <v>45992</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C121" s="12">
         <v>157902579.28</v>
@@ -4535,7 +4541,7 @@
         <v>45292</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C122" s="12">
         <v>40059849.289999999</v>
@@ -4549,7 +4555,7 @@
         <v>45323</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C123" s="12">
         <v>38695867.869999997</v>
@@ -4563,7 +4569,7 @@
         <v>45352</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C124" s="12">
         <v>36683052.149999999</v>
@@ -4577,7 +4583,7 @@
         <v>45383</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C125" s="12">
         <v>36096631.390000001</v>
@@ -4591,7 +4597,7 @@
         <v>45413</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C126" s="12">
         <v>37045428.829999998</v>
@@ -4605,7 +4611,7 @@
         <v>45444</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C127" s="12">
         <v>37314168.950000003</v>
@@ -4619,7 +4625,7 @@
         <v>45474</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D128" s="10">
         <v>45497</v>
@@ -4630,7 +4636,7 @@
         <v>45505</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D129" s="10">
         <v>45497</v>
@@ -4641,7 +4647,7 @@
         <v>45536</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D130" s="10">
         <v>45497</v>
@@ -4652,7 +4658,7 @@
         <v>45566</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D131" s="10">
         <v>45497</v>
@@ -4663,7 +4669,7 @@
         <v>45597</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D132" s="10">
         <v>45497</v>
@@ -4674,7 +4680,7 @@
         <v>45627</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D133" s="10">
         <v>45497</v>
@@ -4685,7 +4691,7 @@
         <v>45658</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D134" s="10">
         <v>45497</v>
@@ -4696,7 +4702,7 @@
         <v>45689</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D135" s="10">
         <v>45497</v>
@@ -4707,7 +4713,7 @@
         <v>45717</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D136" s="10">
         <v>45497</v>
@@ -4718,7 +4724,7 @@
         <v>45748</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D137" s="10">
         <v>45497</v>
@@ -4729,7 +4735,7 @@
         <v>45778</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D138" s="10">
         <v>45497</v>
@@ -4740,7 +4746,7 @@
         <v>45809</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D139" s="10">
         <v>45497</v>
@@ -4751,7 +4757,7 @@
         <v>45839</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D140" s="10">
         <v>45497</v>
@@ -4762,7 +4768,7 @@
         <v>45870</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D141" s="10">
         <v>45497</v>
@@ -4773,7 +4779,7 @@
         <v>45901</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D142" s="10">
         <v>45497</v>
@@ -4784,7 +4790,7 @@
         <v>45931</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D143" s="10">
         <v>45497</v>
@@ -4795,7 +4801,7 @@
         <v>45962</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D144" s="10">
         <v>45497</v>
@@ -4806,7 +4812,7 @@
         <v>45992</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D145" s="10">
         <v>45497</v>
@@ -4817,7 +4823,7 @@
         <v>45292</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C146" s="12">
         <v>6610386.71</v>
@@ -4831,7 +4837,7 @@
         <v>45323</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C147" s="12">
         <v>7189360.5</v>
@@ -4845,7 +4851,7 @@
         <v>45352</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C148" s="12">
         <v>5993374.3700000001</v>
@@ -4859,7 +4865,7 @@
         <v>45383</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C149" s="12">
         <v>5801880.0899999999</v>
@@ -4873,7 +4879,7 @@
         <v>45413</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C150" s="12">
         <v>6515331.21</v>
@@ -4887,7 +4893,7 @@
         <v>45444</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C151" s="12">
         <v>6389180.2300000004</v>
@@ -4901,7 +4907,7 @@
         <v>45474</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C152" s="12">
         <v>11856830.470000001</v>
@@ -4915,7 +4921,7 @@
         <v>45505</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C153" s="12">
         <v>11783363.109999999</v>
@@ -4929,7 +4935,7 @@
         <v>45536</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C154" s="12">
         <v>12046608.529999999</v>
@@ -4943,7 +4949,7 @@
         <v>45566</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C155" s="12">
         <v>12254187.48</v>
@@ -4957,7 +4963,7 @@
         <v>45597</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C156" s="12">
         <v>12137820.060000001</v>
@@ -4971,7 +4977,7 @@
         <v>45627</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C157" s="12">
         <v>11991022.039999999</v>
@@ -4985,7 +4991,7 @@
         <v>45658</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C158" s="12">
         <v>11141377.25</v>
@@ -4999,7 +5005,7 @@
         <v>45689</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C159" s="12">
         <v>11476729.33</v>
@@ -5013,7 +5019,7 @@
         <v>45717</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C160" s="12">
         <v>11376717.699999999</v>
@@ -5027,7 +5033,7 @@
         <v>45748</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C161" s="12">
         <v>10813862.17</v>
@@ -5041,7 +5047,7 @@
         <v>45778</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C162" s="12">
         <v>14219850.85</v>
@@ -5055,7 +5061,7 @@
         <v>45809</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C163" s="12">
         <v>11752537.34</v>
@@ -5069,7 +5075,7 @@
         <v>45839</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C164" s="12">
         <v>12200230.390000001</v>
@@ -5083,7 +5089,7 @@
         <v>45870</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C165" s="12">
         <v>12172977.279999999</v>
@@ -5097,7 +5103,7 @@
         <v>45901</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C166" s="12">
         <v>12450659.08</v>
@@ -5111,7 +5117,7 @@
         <v>45931</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C167" s="12">
         <v>12738627.460000001</v>
@@ -5125,7 +5131,7 @@
         <v>45962</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C168" s="12">
         <v>12636262.66</v>
@@ -5139,7 +5145,7 @@
         <v>45992</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C169" s="12">
         <v>12446162.6</v>
@@ -5153,7 +5159,7 @@
         <v>45292</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C170" s="12">
         <v>410471649.36000001</v>
@@ -5167,7 +5173,7 @@
         <v>45323</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C171" s="12">
         <v>408652261.58999997</v>
@@ -5181,7 +5187,7 @@
         <v>45352</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C172" s="12">
         <v>397135424.89999998</v>
@@ -5195,7 +5201,7 @@
         <v>45383</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C173" s="12">
         <v>420165794.86000001</v>
@@ -5209,7 +5215,7 @@
         <v>45413</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C174" s="12">
         <v>401621161.07999998</v>
@@ -5223,7 +5229,7 @@
         <v>45444</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C175" s="12">
         <v>429415762.42000002</v>
@@ -5237,7 +5243,7 @@
         <v>45474</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C176" s="12">
         <v>440531524.22000003</v>
@@ -5251,7 +5257,7 @@
         <v>45505</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C177" s="12">
         <v>427184013.43000001</v>
@@ -5265,7 +5271,7 @@
         <v>45536</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C178" s="12">
         <v>452034964.25999999</v>
@@ -5279,7 +5285,7 @@
         <v>45566</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C179" s="12">
         <v>449839366.02999997</v>
@@ -5293,7 +5299,7 @@
         <v>45597</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C180" s="12">
         <v>454935085</v>
@@ -5307,7 +5313,7 @@
         <v>45627</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C181" s="12">
         <v>483331593.62</v>
@@ -5321,7 +5327,7 @@
         <v>45658</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C182" s="12">
         <v>451056355.72000003</v>
@@ -5335,7 +5341,7 @@
         <v>45689</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C183" s="12">
         <v>410739873.91000003</v>
@@ -5349,7 +5355,7 @@
         <v>45717</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C184" s="12">
         <v>412565419.12</v>
@@ -5363,7 +5369,7 @@
         <v>45748</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C185" s="12">
         <v>447314748.05000001</v>
@@ -5377,7 +5383,7 @@
         <v>45778</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C186" s="12">
         <v>434363315.38</v>
@@ -5391,7 +5397,7 @@
         <v>45809</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C187" s="12">
         <v>468365035.67000002</v>
@@ -5405,7 +5411,7 @@
         <v>45839</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C188" s="12">
         <v>462477575.19999999</v>
@@ -5419,7 +5425,7 @@
         <v>45870</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C189" s="12">
         <v>449925689.56999999</v>
@@ -5433,7 +5439,7 @@
         <v>45901</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C190" s="12">
         <v>472922397.49000001</v>
@@ -5447,7 +5453,7 @@
         <v>45931</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C191" s="12">
         <v>471557456.75</v>
@@ -5461,7 +5467,7 @@
         <v>45962</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C192" s="12">
         <v>475069093.25</v>
@@ -5475,7 +5481,7 @@
         <v>45992</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C193" s="12">
         <v>503426523.06</v>
@@ -5825,7 +5831,7 @@
         <v>45292</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C218" s="12">
         <v>63942979.07</v>
@@ -5839,7 +5845,7 @@
         <v>45323</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C219" s="12">
         <v>62628235.649999999</v>
@@ -5853,7 +5859,7 @@
         <v>45352</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C220" s="12">
         <v>60100837.189999998</v>
@@ -5867,7 +5873,7 @@
         <v>45383</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C221" s="12">
         <v>61270515.119999997</v>
@@ -5881,7 +5887,7 @@
         <v>45413</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C222" s="12">
         <v>61088175.310000002</v>
@@ -5895,7 +5901,7 @@
         <v>45444</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C223" s="12">
         <v>62244635</v>
@@ -5909,7 +5915,7 @@
         <v>45474</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C224" s="12">
         <v>62449104.649999999</v>
@@ -5923,7 +5929,7 @@
         <v>45505</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C225" s="12">
         <v>65214421.369999997</v>
@@ -5937,7 +5943,7 @@
         <v>45536</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C226" s="12">
         <v>66289458.960000001</v>
@@ -5951,7 +5957,7 @@
         <v>45566</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C227" s="12">
         <v>66964984.810000002</v>
@@ -5965,7 +5971,7 @@
         <v>45597</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C228" s="12">
         <v>66625715.759999998</v>
@@ -5979,7 +5985,7 @@
         <v>45627</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C229" s="12">
         <v>65885341.030000001</v>
@@ -5993,7 +5999,7 @@
         <v>45658</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C230" s="12">
         <v>66628058.640000001</v>
@@ -6007,7 +6013,7 @@
         <v>45689</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C231" s="12">
         <v>61961222</v>
@@ -6021,7 +6027,7 @@
         <v>45717</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C232" s="12">
         <v>60787267.829999998</v>
@@ -6035,7 +6041,7 @@
         <v>45748</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C233" s="12">
         <v>63595611.880000003</v>
@@ -6049,7 +6055,7 @@
         <v>45778</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C234" s="12">
         <v>62685944.509999998</v>
@@ -6063,7 +6069,7 @@
         <v>45809</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C235" s="12">
         <v>64661224.32</v>
@@ -6077,7 +6083,7 @@
         <v>45839</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C236" s="12">
         <v>66560270.009999998</v>
@@ -6091,7 +6097,7 @@
         <v>45870</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C237" s="12">
         <v>69247789.900000006</v>
@@ -6105,7 +6111,7 @@
         <v>45901</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C238" s="12">
         <v>70289203.439999998</v>
@@ -6119,7 +6125,7 @@
         <v>45931</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C239" s="12">
         <v>71121151.519999996</v>
@@ -6133,7 +6139,7 @@
         <v>45962</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C240" s="12">
         <v>70729111.409999996</v>
@@ -6147,7 +6153,7 @@
         <v>45992</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C241" s="12">
         <v>69933897.840000004</v>
@@ -6161,7 +6167,7 @@
         <v>45292</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C242" s="12">
         <v>33905199.479999997</v>
@@ -6175,7 +6181,7 @@
         <v>45323</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C243" s="12">
         <v>32727905.77</v>
@@ -6189,7 +6195,7 @@
         <v>45352</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C244" s="12">
         <v>32999981.460000001</v>
@@ -6203,7 +6209,7 @@
         <v>45383</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C245" s="12">
         <v>34233241.18</v>
@@ -6217,7 +6223,7 @@
         <v>45413</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C246" s="12">
         <v>35300631.859999999</v>
@@ -6231,7 +6237,7 @@
         <v>45444</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C247" s="12">
         <v>35047192.869999997</v>
@@ -6245,7 +6251,7 @@
         <v>45474</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C248" s="12">
         <v>24412872.309999999</v>
@@ -6259,7 +6265,7 @@
         <v>45505</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C249" s="12">
         <v>24653219.219999999</v>
@@ -6273,7 +6279,7 @@
         <v>45536</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C250" s="12">
         <v>29901308.059999999</v>
@@ -6287,7 +6293,7 @@
         <v>45566</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C251" s="12">
         <v>34834198</v>
@@ -6301,7 +6307,7 @@
         <v>45597</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C252" s="12">
         <v>34831157.68</v>
@@ -6315,7 +6321,7 @@
         <v>45627</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C253" s="12">
         <v>30401247.02</v>
@@ -6329,7 +6335,7 @@
         <v>45658</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C254" s="12">
         <v>31154510.5</v>
@@ -6343,7 +6349,7 @@
         <v>45689</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C255" s="12">
         <v>30967123.030000001</v>
@@ -6357,7 +6363,7 @@
         <v>45717</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C256" s="12">
         <v>24274841.309999999</v>
@@ -6371,7 +6377,7 @@
         <v>45748</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C257" s="12">
         <v>21226741.789999999</v>
@@ -6385,7 +6391,7 @@
         <v>45778</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C258" s="12">
         <v>23897888.18</v>
@@ -6399,7 +6405,7 @@
         <v>45809</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C259" s="12">
         <v>24742946.620000001</v>
@@ -6413,7 +6419,7 @@
         <v>45839</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C260" s="12">
         <v>22978013.989999998</v>
@@ -6427,7 +6433,7 @@
         <v>45870</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C261" s="12">
         <v>24512075.420000002</v>
@@ -6441,7 +6447,7 @@
         <v>45901</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C262" s="12">
         <v>30229425.43</v>
@@ -6455,7 +6461,7 @@
         <v>45931</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C263" s="12">
         <v>34984275.82</v>
@@ -6469,7 +6475,7 @@
         <v>45962</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C264" s="12">
         <v>34608608.25</v>
@@ -6483,7 +6489,7 @@
         <v>45992</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C265" s="12">
         <v>32815441.129999999</v>
@@ -6497,7 +6503,7 @@
         <v>45292</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D266" s="10">
         <v>45318</v>
@@ -6508,7 +6514,7 @@
         <v>45323</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D267" s="10">
         <v>45318</v>
@@ -6519,7 +6525,7 @@
         <v>45352</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D268" s="10">
         <v>45376</v>
@@ -6530,7 +6536,7 @@
         <v>45383</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D269" s="10">
         <v>45376</v>
@@ -6541,7 +6547,7 @@
         <v>45413</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D270" s="10">
         <v>45376</v>
@@ -6552,7 +6558,7 @@
         <v>45444</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D271" s="10">
         <v>45376</v>
@@ -6563,7 +6569,7 @@
         <v>45474</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C272" s="12">
         <v>120411838.18000001</v>
@@ -6577,7 +6583,7 @@
         <v>45505</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C273" s="12">
         <v>122621030.48999999</v>
@@ -6591,7 +6597,7 @@
         <v>45536</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C274" s="12">
         <v>128229882.39</v>
@@ -6605,7 +6611,7 @@
         <v>45566</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C275" s="12">
         <v>125825978.77</v>
@@ -6619,7 +6625,7 @@
         <v>45597</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C276" s="12">
         <v>128480041.05</v>
@@ -6633,7 +6639,7 @@
         <v>45627</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C277" s="12">
         <v>131314592.63</v>
@@ -6647,7 +6653,7 @@
         <v>45658</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C278" s="12">
         <v>137058461.36000001</v>
@@ -6661,7 +6667,7 @@
         <v>45689</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C279" s="12">
         <v>114956029.43000001</v>
@@ -6675,7 +6681,7 @@
         <v>45717</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C280" s="12">
         <v>113944684.95</v>
@@ -6689,7 +6695,7 @@
         <v>45748</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C281" s="12">
         <v>112301820.93000001</v>
@@ -6703,7 +6709,7 @@
         <v>45778</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C282" s="12">
         <v>119589207.8</v>
@@ -6717,7 +6723,7 @@
         <v>45809</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C283" s="12">
         <v>125179884.05</v>
@@ -6731,7 +6737,7 @@
         <v>45839</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C284" s="12">
         <v>133533660.5</v>
@@ -6745,7 +6751,7 @@
         <v>45870</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C285" s="12">
         <v>135368099.96000001</v>
@@ -6759,7 +6765,7 @@
         <v>45901</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C286" s="12">
         <v>141100843.55000001</v>
@@ -6773,7 +6779,7 @@
         <v>45931</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C287" s="12">
         <v>139068841.41</v>
@@ -6787,7 +6793,7 @@
         <v>45962</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C288" s="12">
         <v>142132627.72</v>
@@ -6801,7 +6807,7 @@
         <v>45992</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C289" s="12">
         <v>145003886.91</v>
